--- a/Symphony/2021/SEPTEMBER/All Details/05.09.2021/MC Bank Statement September-2021.xlsx
+++ b/Symphony/2021/SEPTEMBER/All Details/05.09.2021/MC Bank Statement September-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\SEPTEMBER\All Details\04.09.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\SEPTEMBER\All Details\05.09.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -740,9 +740,6 @@
     <t>Biswash Telecom</t>
   </si>
   <si>
-    <t>Rasel bKash DSR</t>
-  </si>
-  <si>
     <t>Safiul</t>
   </si>
   <si>
@@ -755,10 +752,19 @@
     <t>Tutul</t>
   </si>
   <si>
-    <t>bKash Jafor(-)</t>
+    <t>05.08.2021</t>
   </si>
   <si>
-    <t>Date:04.09.2021</t>
+    <t>05.09.2021</t>
+  </si>
+  <si>
+    <t>Date:05.09.2021</t>
+  </si>
+  <si>
+    <t>Moom Telecom</t>
+  </si>
+  <si>
+    <t>Sabbir Mobile</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2108,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3005,6 +3011,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3036,12 +3048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3136,6 +3142,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4931,7 +4940,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5080,12 +5089,18 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="313"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1480500</v>
+      </c>
+      <c r="D10" s="153">
+        <v>2000000</v>
+      </c>
       <c r="E10" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="2"/>
@@ -5098,7 +5113,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="2"/>
@@ -5111,7 +5126,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="31"/>
@@ -5124,7 +5139,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="2"/>
@@ -5137,7 +5152,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="2"/>
@@ -5150,7 +5165,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="2"/>
@@ -5163,7 +5178,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="22"/>
@@ -5176,7 +5191,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="13"/>
@@ -5189,7 +5204,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="29">
         <f>E17+C18-D18</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="31"/>
@@ -5202,7 +5217,7 @@
       <c r="D19" s="30"/>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="31"/>
@@ -5215,7 +5230,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="31"/>
@@ -5228,7 +5243,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="29">
         <f>E20+C21-D21</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="2"/>
@@ -5241,7 +5256,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="2"/>
@@ -5254,7 +5269,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="29">
         <f>E22+C23-D23</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="2"/>
@@ -5267,7 +5282,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="2"/>
@@ -5280,7 +5295,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="2"/>
@@ -5293,7 +5308,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="2"/>
@@ -5306,7 +5321,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="2"/>
@@ -5319,7 +5334,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="2"/>
@@ -5332,7 +5347,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="2"/>
@@ -5345,7 +5360,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="2"/>
@@ -5358,7 +5373,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="2"/>
@@ -5371,7 +5386,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="29">
         <f>E31+C32-D32</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="2"/>
@@ -5384,7 +5399,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="2"/>
@@ -5397,7 +5412,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="2"/>
@@ -5410,7 +5425,7 @@
       <c r="D35" s="27"/>
       <c r="E35" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="2"/>
@@ -5423,7 +5438,7 @@
       <c r="D36" s="27"/>
       <c r="E36" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="2"/>
@@ -5436,7 +5451,7 @@
       <c r="D37" s="27"/>
       <c r="E37" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="2"/>
@@ -5449,7 +5464,7 @@
       <c r="D38" s="27"/>
       <c r="E38" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="2"/>
@@ -5462,7 +5477,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="2"/>
@@ -5475,7 +5490,7 @@
       <c r="D40" s="27"/>
       <c r="E40" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="2"/>
@@ -5488,7 +5503,7 @@
       <c r="D41" s="27"/>
       <c r="E41" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="2"/>
@@ -5501,7 +5516,7 @@
       <c r="D42" s="27"/>
       <c r="E42" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="2"/>
@@ -5514,7 +5529,7 @@
       <c r="D43" s="27"/>
       <c r="E43" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="2"/>
@@ -5527,7 +5542,7 @@
       <c r="D44" s="27"/>
       <c r="E44" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="2"/>
@@ -5540,7 +5555,7 @@
       <c r="D45" s="27"/>
       <c r="E45" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="2"/>
@@ -5553,7 +5568,7 @@
       <c r="D46" s="27"/>
       <c r="E46" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="2"/>
@@ -5566,7 +5581,7 @@
       <c r="D47" s="27"/>
       <c r="E47" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="2"/>
@@ -5579,7 +5594,7 @@
       <c r="D48" s="27"/>
       <c r="E48" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="2"/>
@@ -5592,7 +5607,7 @@
       <c r="D49" s="27"/>
       <c r="E49" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="2"/>
@@ -5605,7 +5620,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="2"/>
@@ -5618,7 +5633,7 @@
       <c r="D51" s="27"/>
       <c r="E51" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="2"/>
@@ -5631,7 +5646,7 @@
       <c r="D52" s="27"/>
       <c r="E52" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="2"/>
@@ -5644,7 +5659,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="2"/>
@@ -5657,7 +5672,7 @@
       <c r="D54" s="27"/>
       <c r="E54" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="2"/>
@@ -5670,7 +5685,7 @@
       <c r="D55" s="27"/>
       <c r="E55" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="2"/>
@@ -5682,7 +5697,7 @@
       <c r="D56" s="27"/>
       <c r="E56" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="2"/>
@@ -5694,7 +5709,7 @@
       <c r="D57" s="27"/>
       <c r="E57" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="2"/>
@@ -5706,7 +5721,7 @@
       <c r="D58" s="27"/>
       <c r="E58" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="2"/>
@@ -5718,7 +5733,7 @@
       <c r="D59" s="27"/>
       <c r="E59" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="2"/>
@@ -5730,7 +5745,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="2"/>
@@ -5742,7 +5757,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="2"/>
@@ -5754,7 +5769,7 @@
       <c r="D62" s="27"/>
       <c r="E62" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="2"/>
@@ -5766,7 +5781,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="2"/>
@@ -5778,7 +5793,7 @@
       <c r="D64" s="27"/>
       <c r="E64" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="2"/>
@@ -5790,7 +5805,7 @@
       <c r="D65" s="27"/>
       <c r="E65" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="2"/>
@@ -5802,7 +5817,7 @@
       <c r="D66" s="27"/>
       <c r="E66" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="2"/>
@@ -5814,7 +5829,7 @@
       <c r="D67" s="27"/>
       <c r="E67" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="2"/>
@@ -5826,7 +5841,7 @@
       <c r="D68" s="27"/>
       <c r="E68" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="2"/>
@@ -5838,7 +5853,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="29">
         <f t="shared" si="0"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="2"/>
@@ -5850,7 +5865,7 @@
       <c r="D70" s="27"/>
       <c r="E70" s="29">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="2"/>
@@ -5862,7 +5877,7 @@
       <c r="D71" s="27"/>
       <c r="E71" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="2"/>
@@ -5874,7 +5889,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="2"/>
@@ -5886,7 +5901,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="2"/>
@@ -5898,7 +5913,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="2"/>
@@ -5910,7 +5925,7 @@
       <c r="D75" s="27"/>
       <c r="E75" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="2"/>
@@ -5922,7 +5937,7 @@
       <c r="D76" s="27"/>
       <c r="E76" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="2"/>
@@ -5934,7 +5949,7 @@
       <c r="D77" s="27"/>
       <c r="E77" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="2"/>
@@ -5946,7 +5961,7 @@
       <c r="D78" s="27"/>
       <c r="E78" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="2"/>
@@ -5958,7 +5973,7 @@
       <c r="D79" s="27"/>
       <c r="E79" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="2"/>
@@ -5970,7 +5985,7 @@
       <c r="D80" s="27"/>
       <c r="E80" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="2"/>
@@ -5982,7 +5997,7 @@
       <c r="D81" s="27"/>
       <c r="E81" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="2"/>
@@ -5994,7 +6009,7 @@
       <c r="D82" s="27"/>
       <c r="E82" s="29">
         <f t="shared" si="1"/>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="2"/>
@@ -6004,15 +6019,15 @@
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
-        <v>3310984</v>
+        <v>4791484</v>
       </c>
       <c r="D83" s="29">
         <f>SUM(D5:D77)</f>
-        <v>2550000</v>
+        <v>4550000</v>
       </c>
       <c r="E83" s="44">
         <f>E71</f>
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="2"/>
@@ -6038,8 +6053,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6052,67 +6067,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="316"/>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:24" s="84" customFormat="1" ht="18">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="319" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
-      <c r="Q2" s="317"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
     </row>
     <row r="3" spans="1:24" s="85" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="320" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="320"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="322"/>
       <c r="S3" s="67"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6121,49 +6136,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="86" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="325" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="325" t="s">
+      <c r="C4" s="314" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="314" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="314" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="314" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="G4" s="314" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="325" t="s">
+      <c r="H4" s="314" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="325" t="s">
+      <c r="I4" s="314" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="325" t="s">
+      <c r="J4" s="314" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="325" t="s">
+      <c r="K4" s="314" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="314" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="325" t="s">
+      <c r="M4" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="325" t="s">
+      <c r="N4" s="314" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="314" t="s">
+      <c r="O4" s="316" t="s">
         <v>57</v>
       </c>
       <c r="P4" s="327" t="s">
@@ -6179,21 +6194,21 @@
       <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:24" s="86" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="322"/>
-      <c r="B5" s="324"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="315"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="317"/>
       <c r="P5" s="328"/>
       <c r="Q5" s="156" t="s">
         <v>58</v>
@@ -6332,17 +6347,29 @@
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="101">
+        <v>1300</v>
+      </c>
       <c r="C9" s="94"/>
       <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="E9" s="102">
+        <v>150</v>
+      </c>
       <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="G9" s="102">
+        <v>340</v>
+      </c>
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="102"/>
+      <c r="J9" s="103">
+        <v>170</v>
+      </c>
+      <c r="K9" s="102">
+        <v>480</v>
+      </c>
       <c r="L9" s="102"/>
       <c r="M9" s="102"/>
       <c r="N9" s="134"/>
@@ -6350,7 +6377,7 @@
       <c r="P9" s="104"/>
       <c r="Q9" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="R9" s="99"/>
       <c r="S9" s="10"/>
@@ -7061,7 +7088,7 @@
       </c>
       <c r="B37" s="119">
         <f>SUM(B6:B36)</f>
-        <v>1850</v>
+        <v>3150</v>
       </c>
       <c r="C37" s="120">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7073,7 +7100,7 @@
       </c>
       <c r="E37" s="120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F37" s="120">
         <f t="shared" si="1"/>
@@ -7081,7 +7108,7 @@
       </c>
       <c r="G37" s="120">
         <f>SUM(G6:G36)</f>
-        <v>1680</v>
+        <v>2020</v>
       </c>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
@@ -7093,11 +7120,11 @@
       </c>
       <c r="J37" s="120">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>585</v>
       </c>
       <c r="K37" s="120">
         <f t="shared" si="1"/>
-        <v>1470</v>
+        <v>1950</v>
       </c>
       <c r="L37" s="120">
         <f t="shared" si="1"/>
@@ -7121,7 +7148,7 @@
       </c>
       <c r="Q37" s="122">
         <f>SUM(Q6:Q36)</f>
-        <v>7030</v>
+        <v>9470</v>
       </c>
       <c r="S37" s="269" t="s">
         <v>66</v>
@@ -9127,6 +9154,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9145,7 +9173,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9159,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9938,16 +9965,26 @@
       <c r="CS7" s="168"/>
     </row>
     <row r="8" spans="1:97">
-      <c r="A8" s="213"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="66"/>
+      <c r="A8" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="66">
+        <v>997400</v>
+      </c>
+      <c r="C8" s="70">
+        <v>797850</v>
+      </c>
+      <c r="D8" s="66">
+        <v>2440</v>
+      </c>
       <c r="E8" s="66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800290</v>
       </c>
       <c r="F8" s="273"/>
-      <c r="G8" s="279"/>
+      <c r="G8" s="279">
+        <v>8900</v>
+      </c>
       <c r="H8" s="173"/>
       <c r="I8" s="178"/>
       <c r="J8" s="178"/>
@@ -12493,23 +12530,23 @@
       </c>
       <c r="B33" s="222">
         <f>SUM(B5:B32)</f>
-        <v>2145245</v>
+        <v>3142645</v>
       </c>
       <c r="C33" s="309">
         <f>SUM(C5:C32)</f>
-        <v>2033835</v>
+        <v>2831685</v>
       </c>
       <c r="D33" s="222">
         <f>SUM(D5:D32)</f>
-        <v>7025</v>
+        <v>9465</v>
       </c>
       <c r="E33" s="222">
         <f>SUM(E5:E32)</f>
-        <v>2040860</v>
+        <v>2841150</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>104385</v>
+        <v>301495</v>
       </c>
       <c r="G33" s="283"/>
       <c r="H33" s="169"/>
@@ -13247,7 +13284,7 @@
         <v>134</v>
       </c>
       <c r="B40" s="140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="138" t="s">
         <v>175</v>
@@ -13356,16 +13393,16 @@
         <v>134</v>
       </c>
       <c r="B41" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="138" t="s">
         <v>175</v>
       </c>
       <c r="D41" s="244">
-        <v>2000</v>
+        <v>3060</v>
       </c>
       <c r="E41" s="206" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F41" s="167"/>
       <c r="G41" s="176" t="s">
@@ -13897,10 +13934,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="246">
-        <v>384510</v>
+        <v>546595</v>
       </c>
       <c r="E46" s="216" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F46" s="161"/>
       <c r="G46" s="168"/>
@@ -14385,10 +14422,10 @@
         <v>1743942020</v>
       </c>
       <c r="D50" s="247">
-        <v>186519</v>
+        <v>186189</v>
       </c>
       <c r="E50" s="209" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F50" s="162"/>
       <c r="G50" s="168"/>
@@ -14629,10 +14666,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="247">
-        <v>50630</v>
+        <v>54630</v>
       </c>
       <c r="E52" s="208" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F52" s="162"/>
       <c r="G52" s="168"/>
@@ -17985,10 +18022,10 @@
       </c>
       <c r="C81" s="138"/>
       <c r="D81" s="247">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="E81" s="209" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F81" s="162"/>
       <c r="G81" s="168"/>
@@ -18644,16 +18681,10 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="264"/>
-      <c r="B87" s="72" t="s">
-        <v>214</v>
-      </c>
+      <c r="B87" s="72"/>
       <c r="C87" s="138"/>
-      <c r="D87" s="247">
-        <v>5765</v>
-      </c>
-      <c r="E87" s="208" t="s">
-        <v>212</v>
-      </c>
+      <c r="D87" s="247"/>
+      <c r="E87" s="208"/>
       <c r="F87" s="162"/>
       <c r="G87" s="168"/>
       <c r="H87" s="223"/>
@@ -18752,17 +18783,17 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="205" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="72" t="s">
         <v>216</v>
-      </c>
-      <c r="B88" s="72" t="s">
-        <v>217</v>
       </c>
       <c r="C88" s="138"/>
       <c r="D88" s="247">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E88" s="208" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F88" s="162"/>
       <c r="G88" s="168"/>
@@ -18872,10 +18903,16 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="264"/>
-      <c r="B89" s="72"/>
+      <c r="B89" s="72" t="s">
+        <v>221</v>
+      </c>
       <c r="C89" s="138"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="210"/>
+      <c r="D89" s="247">
+        <v>19000</v>
+      </c>
+      <c r="E89" s="210" t="s">
+        <v>219</v>
+      </c>
       <c r="F89" s="162"/>
       <c r="G89" s="168"/>
       <c r="H89" s="223" t="s">
@@ -18981,11 +19018,19 @@
       <c r="CS89" s="168"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="263"/>
-      <c r="B90" s="72"/>
+      <c r="A90" s="263" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>222</v>
+      </c>
       <c r="C90" s="138"/>
-      <c r="D90" s="247"/>
-      <c r="E90" s="210"/>
+      <c r="D90" s="247">
+        <v>16060</v>
+      </c>
+      <c r="E90" s="210" t="s">
+        <v>219</v>
+      </c>
       <c r="F90" s="162"/>
       <c r="G90" s="168"/>
       <c r="H90" s="223" t="s">
@@ -22152,7 +22197,7 @@
       <c r="C119" s="342"/>
       <c r="D119" s="250">
         <f>SUM(D37:D118)</f>
-        <v>1969259</v>
+        <v>2166369</v>
       </c>
       <c r="E119" s="242"/>
       <c r="F119" s="168"/>
@@ -22359,7 +22404,7 @@
       <c r="C121" s="330"/>
       <c r="D121" s="250">
         <f>D119+M121</f>
-        <v>1969259</v>
+        <v>2166369</v>
       </c>
       <c r="E121" s="242"/>
       <c r="F121" s="168"/>
@@ -33592,8 +33637,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33603,7 +33648,7 @@
     <col min="3" max="3" width="3" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="16" width="10.7109375" style="1" customWidth="1"/>
@@ -33743,14 +33788,14 @@
         <v>11</v>
       </c>
       <c r="E6" s="49">
-        <v>3667510.9454761902</v>
+        <v>2695653.7022619001</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="297" t="s">
         <v>198</v>
       </c>
       <c r="H6" s="298" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -33779,14 +33824,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="48">
-        <v>55780.170357142844</v>
+        <v>81322.927142857137</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="49">
-        <v>760984</v>
+        <v>241484</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="295"/>
@@ -33821,7 +33866,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="131">
-        <v>780544.22488095239</v>
+        <v>788994.22488095611</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="295"/>
@@ -33884,7 +33929,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="48">
-        <v>7030</v>
+        <v>9470</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="150"/>
@@ -33925,7 +33970,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="49">
-        <v>1969259</v>
+        <v>2166369</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="291"/>
@@ -33958,14 +34003,14 @@
       </c>
       <c r="B12" s="286">
         <f>B7+B8-B10-B11</f>
-        <v>48750.170357142844</v>
+        <v>71852.927142857137</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="49">
-        <v>157670</v>
+        <v>166570</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="290"/>
@@ -34000,7 +34045,7 @@
         <v>189</v>
       </c>
       <c r="E13" s="50">
-        <v>12782</v>
+        <v>2012782.0000000009</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>66</v>
@@ -34034,12 +34079,8 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="157" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="287">
-        <v>700000</v>
-      </c>
+      <c r="A14" s="157"/>
+      <c r="B14" s="287"/>
       <c r="C14" s="47"/>
       <c r="D14" s="152"/>
       <c r="E14" s="151"/>
@@ -34108,7 +34149,7 @@
       </c>
       <c r="B16" s="51">
         <f>B6+B7+B8-B10-B14-B11</f>
-        <v>7348750.1703571426</v>
+        <v>8071852.9271428576</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
@@ -34116,7 +34157,7 @@
       </c>
       <c r="E16" s="50">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>7348750.1703571426</v>
+        <v>8071852.9271428576</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="132">
@@ -34451,8 +34492,8 @@
       <c r="A25" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="146">
-        <v>384510</v>
+      <c r="B25" s="358">
+        <v>546595</v>
       </c>
       <c r="C25" s="147"/>
       <c r="D25" s="53" t="s">
